--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.550961</v>
+        <v>5.682516</v>
       </c>
       <c r="H2">
-        <v>13.652883</v>
+        <v>17.047548</v>
       </c>
       <c r="I2">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991918</v>
       </c>
       <c r="J2">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991919</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>32.831136293684</v>
+        <v>1.649005529696</v>
       </c>
       <c r="R2">
-        <v>295.480226643156</v>
+        <v>14.841049767264</v>
       </c>
       <c r="S2">
-        <v>0.186637870262135</v>
+        <v>0.01550972014856462</v>
       </c>
       <c r="T2">
-        <v>0.186637870262135</v>
+        <v>0.01550972014856462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.550961</v>
+        <v>5.682516</v>
       </c>
       <c r="H3">
-        <v>13.652883</v>
+        <v>17.047548</v>
       </c>
       <c r="I3">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991918</v>
       </c>
       <c r="J3">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991919</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>32.358928580324</v>
+        <v>40.404681428944</v>
       </c>
       <c r="R3">
-        <v>291.230357222916</v>
+        <v>363.642132860496</v>
       </c>
       <c r="S3">
-        <v>0.1839534720995341</v>
+        <v>0.3800261978323113</v>
       </c>
       <c r="T3">
-        <v>0.1839534720995342</v>
+        <v>0.3800261978323113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.550961</v>
+        <v>5.682516</v>
       </c>
       <c r="H4">
-        <v>13.652883</v>
+        <v>17.047548</v>
       </c>
       <c r="I4">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991918</v>
       </c>
       <c r="J4">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991919</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>4.829918222442999</v>
+        <v>6.030833394908</v>
       </c>
       <c r="R4">
-        <v>43.469264001987</v>
+        <v>54.277500554172</v>
       </c>
       <c r="S4">
-        <v>0.02745703476460109</v>
+        <v>0.05672299851831593</v>
       </c>
       <c r="T4">
-        <v>0.02745703476460109</v>
+        <v>0.05672299851831592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>16.347735</v>
       </c>
       <c r="I5">
-        <v>0.4766165055717775</v>
+        <v>0.4336933920535619</v>
       </c>
       <c r="J5">
-        <v>0.4766165055717775</v>
+        <v>0.433693392053562</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>39.31145647978</v>
+        <v>1.58131277372</v>
       </c>
       <c r="R5">
-        <v>353.80310831802</v>
+        <v>14.23181496348</v>
       </c>
       <c r="S5">
-        <v>0.2234770812882351</v>
+        <v>0.01487303598810193</v>
       </c>
       <c r="T5">
-        <v>0.2234770812882351</v>
+        <v>0.01487303598810193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>16.347735</v>
       </c>
       <c r="I6">
-        <v>0.4766165055717775</v>
+        <v>0.4336933920535619</v>
       </c>
       <c r="J6">
-        <v>0.4766165055717775</v>
+        <v>0.433693392053562</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>38.74604281858</v>
@@ -818,10 +818,10 @@
         <v>348.71438536722</v>
       </c>
       <c r="S6">
-        <v>0.2202628275810375</v>
+        <v>0.3644258737514744</v>
       </c>
       <c r="T6">
-        <v>0.2202628275810375</v>
+        <v>0.3644258737514744</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>16.347735</v>
       </c>
       <c r="I7">
-        <v>0.4766165055717775</v>
+        <v>0.4336933920535619</v>
       </c>
       <c r="J7">
-        <v>0.4766165055717775</v>
+        <v>0.433693392053562</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
-        <v>5.783263737934999</v>
+        <v>5.783263737935001</v>
       </c>
       <c r="R7">
         <v>52.049373641415</v>
       </c>
       <c r="S7">
-        <v>0.03287659670250496</v>
+        <v>0.05439448231398565</v>
       </c>
       <c r="T7">
-        <v>0.03287659670250496</v>
+        <v>0.05439448231398565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.298939</v>
       </c>
       <c r="I8">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="J8">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>10.33767389841644</v>
+        <v>0.4158354141502222</v>
       </c>
       <c r="R8">
-        <v>93.03906508574799</v>
+        <v>3.742518727352</v>
       </c>
       <c r="S8">
-        <v>0.05876742804774876</v>
+        <v>0.003911139644584091</v>
       </c>
       <c r="T8">
-        <v>0.05876742804774876</v>
+        <v>0.003911139644584092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.298939</v>
       </c>
       <c r="I9">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="J9">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
         <v>10.18898792820311</v>
@@ -1004,10 +1004,10 @@
         <v>91.700891353828</v>
       </c>
       <c r="S9">
-        <v>0.05792218064082869</v>
+        <v>0.09583251754932957</v>
       </c>
       <c r="T9">
-        <v>0.05792218064082869</v>
+        <v>0.0958325175493296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.298939</v>
       </c>
       <c r="I10">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="J10">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
-        <v>1.520816065974555</v>
+        <v>1.520816065974556</v>
       </c>
       <c r="R10">
         <v>13.687344593771</v>
       </c>
       <c r="S10">
-        <v>0.008645508613374877</v>
+        <v>0.01430403425333253</v>
       </c>
       <c r="T10">
-        <v>0.008645508613374877</v>
+        <v>0.01430403425333253</v>
       </c>
     </row>
   </sheetData>
